--- a/summary of paper-excel version.xlsx
+++ b/summary of paper-excel version.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <r>
       <t>1.</t>
@@ -534,13 +534,90 @@
       </rPr>
       <t xml:space="preserve"> Improved performance of serially connected Li-ion batteries with active cell balancing in electric vehicles.</t>
     </r>
+  </si>
+  <si>
+    <t>Title: Development of BMS for EVs in Malaysia.</t>
+  </si>
+  <si>
+    <t>1.       Does paper target series or parallel batteries?</t>
+  </si>
+  <si>
+    <t>N/A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.       Does paper target charging, discharging, or both. </t>
+  </si>
+  <si>
+    <t>3.       Is author using active or passive technique?</t>
+  </si>
+  <si>
+    <t>Active.</t>
+  </si>
+  <si>
+    <t>4.       Which is the subcategory?</t>
+  </si>
+  <si>
+    <t>Bi-directional DC/DC converter+HV ultra-capacitor.</t>
+  </si>
+  <si>
+    <t>5.       Which parameter is being monitored for cell balancing?</t>
+  </si>
+  <si>
+    <t>6.       What are they proposing circuit, techniques, and algorithm?</t>
+  </si>
+  <si>
+    <t>Circuit+ EV schematic+ algorithm.</t>
+  </si>
+  <si>
+    <t>7.       What are components used?</t>
+  </si>
+  <si>
+    <t>8.       Is it physical experiment or simulation?</t>
+  </si>
+  <si>
+    <t>Proposed circuit configuration+proposed algorithm.</t>
+  </si>
+  <si>
+    <t>9.       If, simulation which tools are being used?</t>
+  </si>
+  <si>
+    <t>Matlab/Simulink.</t>
+  </si>
+  <si>
+    <t>10.   If hardware which components are being used?</t>
+  </si>
+  <si>
+    <t>Bi-directional DC/DC converter+Battery+HV ultra-capacitor.</t>
+  </si>
+  <si>
+    <t>11.   What are evaluation parameters? In other words what is recorded
+ during experiment what is the comparison benchmark?</t>
+  </si>
+  <si>
+    <t>12.   What are test conditions?</t>
+  </si>
+  <si>
+    <t>13.   What are final results?</t>
+  </si>
+  <si>
+    <t>HESS is the the future BMS which should integrate ultracapacitor combined with Li battery. Further improvements are
+required.</t>
+  </si>
+  <si>
+    <t>14.   What are the improvements compared to previous one?</t>
+  </si>
+  <si>
+    <t>15.   What is your opinion?</t>
+  </si>
+  <si>
+    <t>It is a review paper and does not provide details regarding the proposed technology. Further research is required.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,10 +701,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,6 +713,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -682,7 +767,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -714,9 +799,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,6 +834,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -923,14 +1010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75.7109375" customWidth="1"/>
     <col min="2" max="2" width="115.5703125" customWidth="1"/>
@@ -938,13 +1025,13 @@
     <col min="6" max="6" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1">
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +1039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1">
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -960,7 +1047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1">
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -968,7 +1055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1">
+    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -976,7 +1063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1">
+    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -984,7 +1071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1">
+    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -992,7 +1079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1">
+    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +1087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1">
+    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,7 +1095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1">
+    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1016,7 +1103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1">
+    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,7 +1111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1">
+    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -1032,7 +1119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1">
+    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1">
+    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,7 +1135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1">
+    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1056,7 +1143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1">
+    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -1075,24 +1162,158 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.140625" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/summary of paper-excel version.xlsx
+++ b/summary of paper-excel version.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_GoBack" localSheetId="0">Sheet1!$A$3</definedName>
+    <definedName name="_GoBack" localSheetId="0">Sheet1!$A$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <r>
       <t>1.</t>
@@ -512,30 +512,6 @@
 beginning=&gt; decreases aging=&gt; increases battery lifetime.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Title:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Improved performance of serially connected Li-ion batteries with active cell balancing in electric vehicles.</t>
-    </r>
-  </si>
-  <si>
     <t>Title: Development of BMS for EVs in Malaysia.</t>
   </si>
   <si>
@@ -611,13 +587,62 @@
   </si>
   <si>
     <t>It is a review paper and does not provide details regarding the proposed technology. Further research is required.</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Improved performance of serially connected Li-ion batteries with active cell balancing in electric vehicles.</t>
+  </si>
+  <si>
+    <r>
+      <t>Einhorn, M., Roessler, W., &amp; Fleig, J. (2011). Improved performance of serially connected Li-ion batteries with active cell balancing in electric vehicles. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IEEE Transactions on Vehicular Technology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6), 2448-2457.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,6 +682,19 @@
       <family val="1"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -684,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
@@ -698,14 +736,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,151 +1055,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.7109375" customWidth="1"/>
-    <col min="2" max="2" width="115.5703125" customWidth="1"/>
+    <col min="1" max="1" width="86.42578125" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
+    <col min="3" max="3" width="62.7109375" customWidth="1"/>
     <col min="4" max="4" width="91.5703125" customWidth="1"/>
     <col min="6" max="6" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1165,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,127 +1226,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/summary of paper-excel version.xlsx
+++ b/summary of paper-excel version.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="papers" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_GoBack" localSheetId="0">Sheet1!$A$4</definedName>
+    <definedName name="_GoBack" localSheetId="0">papers!$A$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <r>
       <t>1.</t>
@@ -392,9 +391,6 @@
   </si>
   <si>
     <t>Active balancing technique.</t>
-  </si>
-  <si>
-    <t>Experiment and simulation. Simulations are validated with measurements.</t>
   </si>
   <si>
     <t>Modelica/Dymola software.</t>
@@ -476,9 +472,6 @@
     </r>
   </si>
   <si>
-    <t>During the whole test, the cells are in a climate chamber to min. temperature effects.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Evaluation parameters are Discharging Energy (Wh) and Discharging Capacity (Ah). The battery stack without 
 balancing has 21.9Ah and 240Wh. Using Voltage Balancing=&gt;28.3Ah and 306Wh.Using  Capacity Balancing=&gt;29.1Ah and 318Wh.
 </t>
@@ -504,150 +497,158 @@
 Exp1=&gt;10 serially connected cells. Exp2=&gt;3 serially connected cells.</t>
   </si>
   <si>
-    <t>Active cell balancing prototype with 10 serially connected Li-ion cells and with a balancing current I=4A.</t>
-  </si>
-  <si>
     <t>An important role plays the initial cell properties (manufacturing, aging, charge/discharge limit, etc). Capacity 
 balancing is more effective because also descreases charging time since the weak cell is supported  from the 
 beginning=&gt; decreases aging=&gt; increases battery lifetime.</t>
   </si>
   <si>
-    <t>Title: Development of BMS for EVs in Malaysia.</t>
-  </si>
-  <si>
-    <t>1.       Does paper target series or parallel batteries?</t>
-  </si>
-  <si>
     <t>N/A.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.       Does paper target charging, discharging, or both. </t>
-  </si>
-  <si>
-    <t>3.       Is author using active or passive technique?</t>
-  </si>
-  <si>
     <t>Active.</t>
   </si>
   <si>
-    <t>4.       Which is the subcategory?</t>
-  </si>
-  <si>
-    <t>Bi-directional DC/DC converter+HV ultra-capacitor.</t>
-  </si>
-  <si>
-    <t>5.       Which parameter is being monitored for cell balancing?</t>
-  </si>
-  <si>
-    <t>6.       What are they proposing circuit, techniques, and algorithm?</t>
-  </si>
-  <si>
-    <t>Circuit+ EV schematic+ algorithm.</t>
-  </si>
-  <si>
-    <t>7.       What are components used?</t>
-  </si>
-  <si>
-    <t>8.       Is it physical experiment or simulation?</t>
-  </si>
-  <si>
-    <t>Proposed circuit configuration+proposed algorithm.</t>
-  </si>
-  <si>
-    <t>9.       If, simulation which tools are being used?</t>
-  </si>
-  <si>
-    <t>Matlab/Simulink.</t>
-  </si>
-  <si>
-    <t>10.   If hardware which components are being used?</t>
-  </si>
-  <si>
-    <t>Bi-directional DC/DC converter+Battery+HV ultra-capacitor.</t>
-  </si>
-  <si>
-    <t>11.   What are evaluation parameters? In other words what is recorded
- during experiment what is the comparison benchmark?</t>
-  </si>
-  <si>
-    <t>12.   What are test conditions?</t>
-  </si>
-  <si>
-    <t>13.   What are final results?</t>
-  </si>
-  <si>
-    <t>HESS is the the future BMS which should integrate ultracapacitor combined with Li battery. Further improvements are
-required.</t>
-  </si>
-  <si>
-    <t>14.   What are the improvements compared to previous one?</t>
-  </si>
-  <si>
-    <t>15.   What is your opinion?</t>
-  </si>
-  <si>
-    <t>It is a review paper and does not provide details regarding the proposed technology. Further research is required.</t>
-  </si>
-  <si>
-    <t>Title:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Improved performance of serially connected Li-ion batteries with active cell balancing in electric vehicles.</t>
-  </si>
-  <si>
-    <r>
-      <t>Einhorn, M., Roessler, W., &amp; Fleig, J. (2011). Improved performance of serially connected Li-ion batteries with active cell balancing in electric vehicles. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IEEE Transactions on Vehicular Technology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(6), 2448-2457.</t>
-    </r>
+    <t>Experiment and simulation. Simulations are validated 
+with measurements.</t>
+  </si>
+  <si>
+    <t>Active cell balancing prototype with 10 serially
+ connected Li-ion cells and with a balancing current I=4A.</t>
+  </si>
+  <si>
+    <t>During the whole test, the cells are in a climate
+chamber to min. temperature effects.</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Active Cell Balancing in Battery Packs</t>
+  </si>
+  <si>
+    <t>Improved performance of serially connected Li-ion batteries with active cell balancing in electric vehicles.</t>
+  </si>
+  <si>
+    <t>Both.</t>
+  </si>
+  <si>
+    <t>Voltage.</t>
+  </si>
+  <si>
+    <t>Circuit (fig.2); Balancer circuit (fig.3);</t>
+  </si>
+  <si>
+    <t>Equalize a 5% difference of one cell within 15 minutes.</t>
+  </si>
+  <si>
+    <t>Physical experiment.</t>
+  </si>
+  <si>
+    <t>Series.</t>
+  </si>
+  <si>
+    <t>DC-to-DC converter, using a charge transfer between individual
+cells.</t>
+  </si>
+  <si>
+    <t>The battery pack has 12 NiMH cell; Power inductor L=33uH/1.4A 
+max; power MOSFETs are P+N type in one SOIC-8 package with
+a max I=7A;</t>
+  </si>
+  <si>
+    <t>Dedicated integrated circuit for the cell's V measurement, 
+simple ON/OFF switches for the MOSFET's gates driven by a 5V
+voltage leve and the Freescale ColdFire V1 MCF51JM128 
+microcontroller for overall control.</t>
+  </si>
+  <si>
+    <t>Nominal Battery V=14.5V and all the control circuits are powered
+ by the small DC-to-DC converter with a 5V output voltage level.</t>
+  </si>
+  <si>
+    <t>The battery pack has a nominal capacity of 1700mAh; 
+Max load I=500mA;  The max charged NiMH cell's V=1.38V.</t>
+  </si>
+  <si>
+    <t>Flyback Converter Balancing Technique for Lithium Based Batteries</t>
+  </si>
+  <si>
+    <t>MATLAB.</t>
+  </si>
+  <si>
+    <t>Active technique.</t>
+  </si>
+  <si>
+    <t>Flyback converter.</t>
+  </si>
+  <si>
+    <t>Circuit (fig. 2).</t>
+  </si>
+  <si>
+    <t>Simulation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cells are balanced fast, in 0.02sec; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 cells in series; supplementary circuit (RCD snubber); 1 MOSFET n-channel switch; 8 diodes;
+multiwinding transfer with ratio 1:8; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary I=1.5A in steady state, after balancing; Cell current in steady state is the same
+ (close to 1.5A);  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compared to forward converter, flyback converter doesn't require a reset winding, diode and 
+inductor at secondary side. </t>
+  </si>
+  <si>
+    <t>B cells are modeled with Capacitors with the value of 5F; Cell Voltages varies from 3.1V to
+3.6 V in order to apply V imbalance; Battery pack V=3.6V*8 cell=28.8V;</t>
+  </si>
+  <si>
+    <t>The transformer balancing technique has a smaller equailizing time compared to other methods. The advantages are: fast balancing time, direct energy transfer is possible between 
+non-neighboring cells and easy to control. The disadvantages are: the secondary winding 
+voltages are not equal due to the nonuniform turn ratio of secondary leakage inductance,
+magnetic losses and high cost.</t>
+  </si>
+  <si>
+    <t>Published in: 2019 8th International Conference on Modern Circuits and Systems Technologies (MOCAST)
+Date of Conference: 13-15 May 2019
+Date Added to IEEE Xplore: 20 June 2019
+ ISBN Information:
+INSPEC Accession Number: 18760130
+DOI: 10.1109/MOCAST.2019.8741893
+Publisher: IEEE
+Conference Location: Thessaloniki, Greece, Greece</t>
+  </si>
+  <si>
+    <t>Freescale Semiconductor
+Document Number: AN4428
+Rev. 0, 1/2012</t>
+  </si>
+  <si>
+    <t>Einhorn, M., Roessler, W., &amp; Fleig, J. (2011). Improved performance of serially connected Li-ion batteries with active cell balancing in electric vehicles. IEEE Transactions on Vehicular Technology, 60(6), 2448-2457.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,20 +684,34 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,6 +721,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,9 +749,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -733,22 +760,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -811,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -843,10 +885,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -878,7 +919,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1054,157 +1094,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="86.42578125" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" customWidth="1"/>
     <col min="3" max="3" width="62.7109375" customWidth="1"/>
     <col min="4" max="4" width="91.5703125" customWidth="1"/>
     <col min="6" max="6" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>26</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1212,158 +1348,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58.140625" customWidth="1"/>
-    <col min="2" max="2" width="101" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
